--- a/mod_october_22/work_version_22_1.xlsx
+++ b/mod_october_22/work_version_22_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\M3\mod_october_22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06C5483A-61A5-4936-94D2-007B6F42196A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374A91F6-FB7A-451D-838D-DB07529DEEB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1819,8 +1819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
